--- a/praca/GILDIE.xlsx
+++ b/praca/GILDIE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Ilość zwycięstw</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Zmniejszone obrażenia</t>
+  </si>
+  <si>
+    <t>Lvl</t>
+  </si>
+  <si>
+    <t>Chunki per lvl</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q45"/>
+  <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1154,8 +1160,14 @@
         <f t="shared" si="2"/>
         <v>215.51724137931032</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1174,8 +1186,18 @@
         <f t="shared" si="2"/>
         <v>208.33333333333334</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <f>ROUNDUP(I17,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1194,8 +1216,20 @@
         <f t="shared" si="2"/>
         <v>183.33333333333334</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <f>H17+1</f>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f>I17+ 1.22</f>
+        <v>5.22</v>
+      </c>
+      <c r="J18">
+        <f>ROUNDUP(I18,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1214,8 +1248,20 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <f t="shared" ref="H19:H46" si="3">H18+1</f>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I46" si="4">I18+ 1.22</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J46" si="5">ROUNDUP(I19,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1234,8 +1280,20 @@
         <f t="shared" si="2"/>
         <v>133.33333333333334</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>7.6599999999999993</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1254,8 +1312,20 @@
         <f t="shared" si="2"/>
         <v>132.53333333333336</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>8.879999999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1274,8 +1344,20 @@
         <f t="shared" si="2"/>
         <v>131.99999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>10.1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1294,8 +1376,20 @@
         <f t="shared" si="2"/>
         <v>126.00000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>11.32</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1314,8 +1408,20 @@
         <f t="shared" si="2"/>
         <v>124.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>12.540000000000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1334,8 +1440,20 @@
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>13.760000000000002</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1354,8 +1472,20 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>14.980000000000002</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>14</v>
       </c>
@@ -1374,8 +1504,20 @@
         <f t="shared" si="2"/>
         <v>116.94117647058823</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1394,8 +1536,20 @@
         <f t="shared" si="2"/>
         <v>114.28571428571428</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1414,8 +1568,20 @@
         <f t="shared" si="2"/>
         <v>110.22222222222223</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>18.64</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1434,8 +1600,20 @@
         <f t="shared" si="2"/>
         <v>99.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>19.86</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>14</v>
       </c>
@@ -1454,8 +1632,20 @@
         <f t="shared" si="2"/>
         <v>90.36363636363636</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>21.08</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1474,8 +1664,20 @@
         <f t="shared" si="2"/>
         <v>90.181818181818187</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1494,125 +1696,295 @@
         <f t="shared" si="2"/>
         <v>82.666666666666671</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>23.519999999999996</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="D34" t="e">
-        <f t="shared" ref="D34:D45" si="3">(A34/C34)*100</f>
+        <f t="shared" ref="D34:D45" si="6">(A34/C34)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" t="e">
-        <f t="shared" ref="E34:E45" si="4">D34*(A34 * 0.03) + D34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" ref="E34:E45" si="7">D34*(A34 * 0.03) + D34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>24.739999999999995</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="D35" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>25.959999999999994</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="D36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>27.179999999999993</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="D37" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37">
+        <f>H36+1</f>
+        <v>21</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>28.399999999999991</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="D38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>29.61999999999999</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="D39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>30.839999999999989</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="D40" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>32.059999999999988</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="D41" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>33.279999999999987</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="D42" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>34.499999999999986</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="D43" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>35.719999999999985</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="D44" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44">
+        <f>H43+1</f>
+        <v>28</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>36.939999999999984</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="D45" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>38.159999999999982</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>39.379999999999981</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/praca/GILDIE.xlsx
+++ b/praca/GILDIE.xlsx
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4" s="3">
         <v>7</v>

--- a/praca/GILDIE.xlsx
+++ b/praca/GILDIE.xlsx
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3">
         <v>7</v>

--- a/praca/GILDIE.xlsx
+++ b/praca/GILDIE.xlsx
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
